--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121119-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121119-2.xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4253,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4463,12 +4463,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5345,12 +5345,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5513,12 +5513,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5597,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5975,12 +5975,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6059,12 +6059,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6189,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6483,12 +6483,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7117,12 +7117,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7159,12 +7159,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7873,12 +7873,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
